--- a/src/test/resources/registration.xlsx
+++ b/src/test/resources/registration.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{53522F10-49C5-41E2-A413-59568CA1E364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="dataType" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:T33"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>FirstName</t>
   </si>
@@ -69,9 +67,6 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -112,13 +107,25 @@
   </si>
   <si>
     <t>Nisa</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,9 +199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +239,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,7 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,10 +307,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,14 +482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -492,7 +497,7 @@
     <col min="7" max="8" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,13 +522,16 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -543,13 +551,16 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -567,16 +578,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -591,13 +602,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="I7" s="2"/>
     </row>
   </sheetData>
@@ -607,56 +621,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>500</v>
       </c>
@@ -664,7 +678,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>300</v>
       </c>
@@ -678,21 +692,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>123</v>
